--- a/natmiOut/OldD7/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>75.8344165408237</v>
+        <v>98.47161033333335</v>
       </c>
       <c r="H2">
-        <v>75.8344165408237</v>
+        <v>295.414831</v>
       </c>
       <c r="I2">
-        <v>0.2504417783806903</v>
+        <v>0.272681344498213</v>
       </c>
       <c r="J2">
-        <v>0.2504417783806903</v>
+        <v>0.2726813444982129</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.35839113954773</v>
+        <v>1.379781</v>
       </c>
       <c r="N2">
-        <v>1.35839113954773</v>
+        <v>4.139343</v>
       </c>
       <c r="O2">
-        <v>0.02674077504050332</v>
+        <v>0.0234398703721191</v>
       </c>
       <c r="P2">
-        <v>0.02674077504050332</v>
+        <v>0.0234398703721191</v>
       </c>
       <c r="Q2">
-        <v>103.0127995018267</v>
+        <v>135.869256977337</v>
       </c>
       <c r="R2">
-        <v>103.0127995018267</v>
+        <v>1222.823312796033</v>
       </c>
       <c r="S2">
-        <v>0.006697007256421627</v>
+        <v>0.006391615367933264</v>
       </c>
       <c r="T2">
-        <v>0.006697007256421627</v>
+        <v>0.006391615367933262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.8344165408237</v>
+        <v>98.47161033333335</v>
       </c>
       <c r="H3">
-        <v>75.8344165408237</v>
+        <v>295.414831</v>
       </c>
       <c r="I3">
-        <v>0.2504417783806903</v>
+        <v>0.272681344498213</v>
       </c>
       <c r="J3">
-        <v>0.2504417783806903</v>
+        <v>0.2726813444982129</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>49.4401043225405</v>
+        <v>1.27306</v>
       </c>
       <c r="N3">
-        <v>49.4401043225405</v>
+        <v>3.81918</v>
       </c>
       <c r="O3">
-        <v>0.9732592249594967</v>
+        <v>0.02162688236461434</v>
       </c>
       <c r="P3">
-        <v>0.9732592249594967</v>
+        <v>0.02162688236461434</v>
       </c>
       <c r="Q3">
-        <v>3749.261465017315</v>
+        <v>125.3602682509533</v>
       </c>
       <c r="R3">
-        <v>3749.261465017315</v>
+        <v>1128.24241425858</v>
       </c>
       <c r="S3">
-        <v>0.2437447711242687</v>
+        <v>0.005897247360487728</v>
       </c>
       <c r="T3">
-        <v>0.2437447711242687</v>
+        <v>0.005897247360487728</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>110.454650325059</v>
+        <v>98.47161033333335</v>
       </c>
       <c r="H4">
-        <v>110.454650325059</v>
+        <v>295.414831</v>
       </c>
       <c r="I4">
-        <v>0.3647744694248901</v>
+        <v>0.272681344498213</v>
       </c>
       <c r="J4">
-        <v>0.3647744694248901</v>
+        <v>0.2726813444982129</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.35839113954773</v>
+        <v>55.34225733333333</v>
       </c>
       <c r="N4">
-        <v>1.35839113954773</v>
+        <v>166.026772</v>
       </c>
       <c r="O4">
-        <v>0.02674077504050332</v>
+        <v>0.9401603138424074</v>
       </c>
       <c r="P4">
-        <v>0.02674077504050332</v>
+        <v>0.9401603138424074</v>
       </c>
       <c r="Q4">
-        <v>150.040618323403</v>
+        <v>5449.641199095059</v>
       </c>
       <c r="R4">
-        <v>150.040618323403</v>
+        <v>49046.77079185554</v>
       </c>
       <c r="S4">
-        <v>0.00975435202740994</v>
+        <v>0.2563641784224095</v>
       </c>
       <c r="T4">
-        <v>0.00975435202740994</v>
+        <v>0.2563641784224094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>110.454650325059</v>
+        <v>98.47161033333335</v>
       </c>
       <c r="H5">
-        <v>110.454650325059</v>
+        <v>295.414831</v>
       </c>
       <c r="I5">
-        <v>0.3647744694248901</v>
+        <v>0.272681344498213</v>
       </c>
       <c r="J5">
-        <v>0.3647744694248901</v>
+        <v>0.2726813444982129</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>49.4401043225405</v>
+        <v>0.8696043333333333</v>
       </c>
       <c r="N5">
-        <v>49.4401043225405</v>
+        <v>2.608813</v>
       </c>
       <c r="O5">
-        <v>0.9732592249594967</v>
+        <v>0.01477293342085909</v>
       </c>
       <c r="P5">
-        <v>0.9732592249594967</v>
+        <v>0.01477293342085909</v>
       </c>
       <c r="Q5">
-        <v>5460.889434980649</v>
+        <v>85.63133905617812</v>
       </c>
       <c r="R5">
-        <v>5460.889434980649</v>
+        <v>770.6820515056031</v>
       </c>
       <c r="S5">
-        <v>0.3550201173974801</v>
+        <v>0.004028303347382442</v>
       </c>
       <c r="T5">
-        <v>0.3550201173974801</v>
+        <v>0.004028303347382441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.7171642719842</v>
+        <v>113.1680936666667</v>
       </c>
       <c r="H6">
-        <v>51.7171642719842</v>
+        <v>339.504281</v>
       </c>
       <c r="I6">
-        <v>0.1707949923516526</v>
+        <v>0.3133779150241075</v>
       </c>
       <c r="J6">
-        <v>0.1707949923516526</v>
+        <v>0.3133779150241075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.35839113954773</v>
+        <v>1.379781</v>
       </c>
       <c r="N6">
-        <v>1.35839113954773</v>
+        <v>4.139343</v>
       </c>
       <c r="O6">
-        <v>0.02674077504050332</v>
+        <v>0.0234398703721191</v>
       </c>
       <c r="P6">
-        <v>0.02674077504050332</v>
+        <v>0.0234398703721191</v>
       </c>
       <c r="Q6">
-        <v>70.25213770959776</v>
+        <v>156.147185447487</v>
       </c>
       <c r="R6">
-        <v>70.25213770959776</v>
+        <v>1405.324669027383</v>
       </c>
       <c r="S6">
-        <v>0.004567190468520028</v>
+        <v>0.007345537705650035</v>
       </c>
       <c r="T6">
-        <v>0.004567190468520028</v>
+        <v>0.007345537705650033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.7171642719842</v>
+        <v>113.1680936666667</v>
       </c>
       <c r="H7">
-        <v>51.7171642719842</v>
+        <v>339.504281</v>
       </c>
       <c r="I7">
-        <v>0.1707949923516526</v>
+        <v>0.3133779150241075</v>
       </c>
       <c r="J7">
-        <v>0.1707949923516526</v>
+        <v>0.3133779150241075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>49.4401043225405</v>
+        <v>1.27306</v>
       </c>
       <c r="N7">
-        <v>49.4401043225405</v>
+        <v>3.81918</v>
       </c>
       <c r="O7">
-        <v>0.9732592249594967</v>
+        <v>0.02162688236461434</v>
       </c>
       <c r="P7">
-        <v>0.9732592249594967</v>
+        <v>0.02162688236461434</v>
       </c>
       <c r="Q7">
-        <v>2556.901996872863</v>
+        <v>144.0697733232867</v>
       </c>
       <c r="R7">
-        <v>2556.901996872863</v>
+        <v>1296.62795990958</v>
       </c>
       <c r="S7">
-        <v>0.1662278018831326</v>
+        <v>0.00677738730389448</v>
       </c>
       <c r="T7">
-        <v>0.1662278018831326</v>
+        <v>0.006777387303894481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.7963484922365</v>
+        <v>113.1680936666667</v>
       </c>
       <c r="H8">
-        <v>64.7963484922365</v>
+        <v>339.504281</v>
       </c>
       <c r="I8">
-        <v>0.2139887598427669</v>
+        <v>0.3133779150241075</v>
       </c>
       <c r="J8">
-        <v>0.2139887598427669</v>
+        <v>0.3133779150241075</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.35839113954773</v>
+        <v>55.34225733333333</v>
       </c>
       <c r="N8">
-        <v>1.35839113954773</v>
+        <v>166.026772</v>
       </c>
       <c r="O8">
-        <v>0.02674077504050332</v>
+        <v>0.9401603138424074</v>
       </c>
       <c r="P8">
-        <v>0.02674077504050332</v>
+        <v>0.9401603138424074</v>
       </c>
       <c r="Q8">
-        <v>88.01878566690098</v>
+        <v>6262.977761623436</v>
       </c>
       <c r="R8">
-        <v>88.01878566690098</v>
+        <v>56366.79985461093</v>
       </c>
       <c r="S8">
-        <v>0.00572222528815172</v>
+        <v>0.2946254789403442</v>
       </c>
       <c r="T8">
-        <v>0.00572222528815172</v>
+        <v>0.2946254789403442</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>113.1680936666667</v>
+      </c>
+      <c r="H9">
+        <v>339.504281</v>
+      </c>
+      <c r="I9">
+        <v>0.3133779150241075</v>
+      </c>
+      <c r="J9">
+        <v>0.3133779150241075</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.8696043333333333</v>
+      </c>
+      <c r="N9">
+        <v>2.608813</v>
+      </c>
+      <c r="O9">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="P9">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="Q9">
+        <v>98.41146464760588</v>
+      </c>
+      <c r="R9">
+        <v>885.703181828453</v>
+      </c>
+      <c r="S9">
+        <v>0.004629511074218778</v>
+      </c>
+      <c r="T9">
+        <v>0.004629511074218778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>64.7963484922365</v>
-      </c>
-      <c r="H9">
-        <v>64.7963484922365</v>
-      </c>
-      <c r="I9">
-        <v>0.2139887598427669</v>
-      </c>
-      <c r="J9">
-        <v>0.2139887598427669</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>49.4401043225405</v>
-      </c>
-      <c r="N9">
-        <v>49.4401043225405</v>
-      </c>
-      <c r="O9">
-        <v>0.9732592249594967</v>
-      </c>
-      <c r="P9">
-        <v>0.9732592249594967</v>
-      </c>
-      <c r="Q9">
-        <v>3203.538229175862</v>
-      </c>
-      <c r="R9">
-        <v>3203.538229175862</v>
-      </c>
-      <c r="S9">
-        <v>0.2082665345546152</v>
-      </c>
-      <c r="T9">
-        <v>0.2082665345546152</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>58.24795766666667</v>
+      </c>
+      <c r="H10">
+        <v>174.743873</v>
+      </c>
+      <c r="I10">
+        <v>0.1612965539718111</v>
+      </c>
+      <c r="J10">
+        <v>0.1612965539718111</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.379781</v>
+      </c>
+      <c r="N10">
+        <v>4.139343</v>
+      </c>
+      <c r="O10">
+        <v>0.0234398703721191</v>
+      </c>
+      <c r="P10">
+        <v>0.0234398703721191</v>
+      </c>
+      <c r="Q10">
+        <v>80.36942527727102</v>
+      </c>
+      <c r="R10">
+        <v>723.3248274954391</v>
+      </c>
+      <c r="S10">
+        <v>0.003780770316568765</v>
+      </c>
+      <c r="T10">
+        <v>0.003780770316568765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>58.24795766666667</v>
+      </c>
+      <c r="H11">
+        <v>174.743873</v>
+      </c>
+      <c r="I11">
+        <v>0.1612965539718111</v>
+      </c>
+      <c r="J11">
+        <v>0.1612965539718111</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.27306</v>
+      </c>
+      <c r="N11">
+        <v>3.81918</v>
+      </c>
+      <c r="O11">
+        <v>0.02162688236461434</v>
+      </c>
+      <c r="P11">
+        <v>0.02162688236461434</v>
+      </c>
+      <c r="Q11">
+        <v>74.15314498712667</v>
+      </c>
+      <c r="R11">
+        <v>667.37830488414</v>
+      </c>
+      <c r="S11">
+        <v>0.003488341598566027</v>
+      </c>
+      <c r="T11">
+        <v>0.003488341598566027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>58.24795766666667</v>
+      </c>
+      <c r="H12">
+        <v>174.743873</v>
+      </c>
+      <c r="I12">
+        <v>0.1612965539718111</v>
+      </c>
+      <c r="J12">
+        <v>0.1612965539718111</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>55.34225733333333</v>
+      </c>
+      <c r="N12">
+        <v>166.026772</v>
+      </c>
+      <c r="O12">
+        <v>0.9401603138424074</v>
+      </c>
+      <c r="P12">
+        <v>0.9401603138424074</v>
+      </c>
+      <c r="Q12">
+        <v>3223.573462329773</v>
+      </c>
+      <c r="R12">
+        <v>29012.16116096796</v>
+      </c>
+      <c r="S12">
+        <v>0.1516446188038368</v>
+      </c>
+      <c r="T12">
+        <v>0.1516446188038368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>58.24795766666667</v>
+      </c>
+      <c r="H13">
+        <v>174.743873</v>
+      </c>
+      <c r="I13">
+        <v>0.1612965539718111</v>
+      </c>
+      <c r="J13">
+        <v>0.1612965539718111</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.8696043333333333</v>
+      </c>
+      <c r="N13">
+        <v>2.608813</v>
+      </c>
+      <c r="O13">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="P13">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="Q13">
+        <v>50.65267639474989</v>
+      </c>
+      <c r="R13">
+        <v>455.874087552749</v>
+      </c>
+      <c r="S13">
+        <v>0.002382823252839571</v>
+      </c>
+      <c r="T13">
+        <v>0.002382823252839571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>91.235724</v>
+      </c>
+      <c r="H14">
+        <v>273.707172</v>
+      </c>
+      <c r="I14">
+        <v>0.2526441865058685</v>
+      </c>
+      <c r="J14">
+        <v>0.2526441865058685</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.379781</v>
+      </c>
+      <c r="N14">
+        <v>4.139343</v>
+      </c>
+      <c r="O14">
+        <v>0.0234398703721191</v>
+      </c>
+      <c r="P14">
+        <v>0.0234398703721191</v>
+      </c>
+      <c r="Q14">
+        <v>125.885318496444</v>
+      </c>
+      <c r="R14">
+        <v>1132.967866467996</v>
+      </c>
+      <c r="S14">
+        <v>0.00592194698196704</v>
+      </c>
+      <c r="T14">
+        <v>0.005921946981967037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>91.235724</v>
+      </c>
+      <c r="H15">
+        <v>273.707172</v>
+      </c>
+      <c r="I15">
+        <v>0.2526441865058685</v>
+      </c>
+      <c r="J15">
+        <v>0.2526441865058685</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>1.27306</v>
+      </c>
+      <c r="N15">
+        <v>3.81918</v>
+      </c>
+      <c r="O15">
+        <v>0.02162688236461434</v>
+      </c>
+      <c r="P15">
+        <v>0.02162688236461434</v>
+      </c>
+      <c r="Q15">
+        <v>116.14855079544</v>
+      </c>
+      <c r="R15">
+        <v>1045.33695715896</v>
+      </c>
+      <c r="S15">
+        <v>0.005463906101666103</v>
+      </c>
+      <c r="T15">
+        <v>0.005463906101666102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>91.235724</v>
+      </c>
+      <c r="H16">
+        <v>273.707172</v>
+      </c>
+      <c r="I16">
+        <v>0.2526441865058685</v>
+      </c>
+      <c r="J16">
+        <v>0.2526441865058685</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>55.34225733333333</v>
+      </c>
+      <c r="N16">
+        <v>166.026772</v>
+      </c>
+      <c r="O16">
+        <v>0.9401603138424074</v>
+      </c>
+      <c r="P16">
+        <v>0.9401603138424074</v>
+      </c>
+      <c r="Q16">
+        <v>5049.190915600976</v>
+      </c>
+      <c r="R16">
+        <v>45442.71824040879</v>
+      </c>
+      <c r="S16">
+        <v>0.237526037675817</v>
+      </c>
+      <c r="T16">
+        <v>0.237526037675817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>91.235724</v>
+      </c>
+      <c r="H17">
+        <v>273.707172</v>
+      </c>
+      <c r="I17">
+        <v>0.2526441865058685</v>
+      </c>
+      <c r="J17">
+        <v>0.2526441865058685</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.8696043333333333</v>
+      </c>
+      <c r="N17">
+        <v>2.608813</v>
+      </c>
+      <c r="O17">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="P17">
+        <v>0.01477293342085909</v>
+      </c>
+      <c r="Q17">
+        <v>79.338980945204</v>
+      </c>
+      <c r="R17">
+        <v>714.0508285068361</v>
+      </c>
+      <c r="S17">
+        <v>0.003732295746418303</v>
+      </c>
+      <c r="T17">
+        <v>0.003732295746418302</v>
       </c>
     </row>
   </sheetData>
